--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,51 +46,42 @@
     <t>evil</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>seriously</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -100,22 +91,25 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>important</t>
   </si>
   <si>
     <t>social</t>
@@ -479,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -619,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -648,13 +642,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9903846153846154</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -666,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -690,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -698,13 +692,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -719,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8333333333333334</v>
+        <v>0.82</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -740,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -751,10 +745,10 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -766,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -790,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -819,16 +813,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.5517241379310345</v>
+        <v>0.55</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -840,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -848,13 +842,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -866,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.5466666666666666</v>
+        <v>0.52</v>
       </c>
       <c r="L9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -890,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -898,13 +892,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -916,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.4833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -940,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -948,13 +942,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -966,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="L11">
         <v>14</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11">
-        <v>0.03187613843351549</v>
-      </c>
-      <c r="L11">
-        <v>35</v>
-      </c>
       <c r="M11">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -990,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1063</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -998,13 +992,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6470588235294118</v>
+        <v>0.625</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1016,7 +1010,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>0.04280510018214936</v>
+      </c>
+      <c r="L12">
+        <v>47</v>
+      </c>
+      <c r="M12">
+        <v>47</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1051</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1024,13 +1042,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5625</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1042,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1050,13 +1068,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.463768115942029</v>
+        <v>0.45</v>
       </c>
       <c r="C14">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1068,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1076,13 +1094,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.391304347826087</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1094,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1102,13 +1120,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3571428571428572</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1120,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1128,13 +1146,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3461538461538461</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1146,85 +1164,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="C18">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2765957446808511</v>
-      </c>
-      <c r="C19">
-        <v>13</v>
-      </c>
-      <c r="D19">
-        <v>13</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
